--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB204C-3FFF-43EA-A5B0-062077EA6E1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09616F5-CC16-4811-8668-8D12A63684D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="29">
   <si>
     <t>Report List</t>
   </si>
@@ -103,13 +103,22 @@
   </si>
   <si>
     <t>Company image needs to added, Company name and address should be dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Image, Company Address and Individual Invoice No wise print</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +143,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +235,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +559,7 @@
   <dimension ref="C3:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +667,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="3:15" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>3</v>
       </c>
@@ -662,20 +684,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="10">
+    <row r="8" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="20">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="12"/>
+      <c r="E8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="10">

--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09616F5-CC16-4811-8668-8D12A63684D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E57EA9D-9E1E-4BDC-9422-0E5674DF3B9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="28">
   <si>
     <t>Report List</t>
   </si>
@@ -105,20 +105,17 @@
     <t>Company image needs to added, Company name and address should be dynamic</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes </t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>Image, Company Address and Individual Invoice No wise print</t>
+    <t>Image needs to be added</t>
+  </si>
+  <si>
+    <t>Currency Needs to added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,13 +140,6 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,9 +180,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,11 +223,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +549,7 @@
   <dimension ref="C3:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,184 +561,197 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="3:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>2</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="20">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="3:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="10">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="E12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="10">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="10">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="G12" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E57EA9D-9E1E-4BDC-9422-0E5674DF3B9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A4CF1-4BAC-49A5-A78F-130284E2C4CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Report List</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>Currency Needs to added</t>
+  </si>
+  <si>
+    <t>Customer Details</t>
+  </si>
+  <si>
+    <t>Employee Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Null </t>
+  </si>
+  <si>
+    <t>Stock Report</t>
+  </si>
+  <si>
+    <t>Damage Report</t>
   </si>
 </sst>
 </file>
@@ -145,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,6 +252,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,14 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055E9E8-9AB6-4783-B44E-A39CAC338D17}">
-  <dimension ref="C3:O12"/>
+  <dimension ref="C3:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="9.140625" style="25"/>
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
@@ -709,19 +746,19 @@
       </c>
     </row>
     <row r="10" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="9">
+      <c r="C10" s="22">
         <v>6</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="11"/>
+      <c r="E10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="9">
@@ -752,6 +789,66 @@
         <v>11</v>
       </c>
       <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="9">
+        <v>9</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="9">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="9">
+        <v>12</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A4CF1-4BAC-49A5-A78F-130284E2C4CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84D890D-42BE-4C68-9A34-0B60EAC7A224}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>Report List</t>
   </si>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,9 +221,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -585,12 +582,12 @@
   <dimension ref="C3:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="25"/>
+    <col min="3" max="3" width="9.140625" style="24"/>
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
@@ -598,10 +595,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="3"/>
@@ -625,16 +622,16 @@
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -657,7 +654,7 @@
       <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="10" t="s">
@@ -685,7 +682,7 @@
       <c r="K6" s="9">
         <v>2</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="9" t="s">
@@ -698,7 +695,7 @@
       <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -732,7 +729,7 @@
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -741,39 +738,43 @@
       <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>6</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>7</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="3:15" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="9">
@@ -782,73 +783,73 @@
       <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="9">
         <v>11</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="9">
         <v>12</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84D890D-42BE-4C68-9A34-0B60EAC7A224}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE45C25-FF68-45DA-B034-153C582CB540}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Report List</t>
   </si>
@@ -111,26 +111,35 @@
     <t>Currency Needs to added</t>
   </si>
   <si>
-    <t>Customer Details</t>
-  </si>
-  <si>
-    <t>Employee Report</t>
-  </si>
-  <si>
     <t xml:space="preserve">Null </t>
   </si>
   <si>
-    <t>Stock Report</t>
-  </si>
-  <si>
     <t>Damage Report</t>
+  </si>
+  <si>
+    <t>Employee List Report</t>
+  </si>
+  <si>
+    <t>Customer List Details</t>
+  </si>
+  <si>
+    <t>Purchase_Invoice (Purchase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Report (Damage Entry) </t>
+  </si>
+  <si>
+    <t>Income Report  (Income)</t>
+  </si>
+  <si>
+    <t>Stock Report (Product)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +164,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,6 +280,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055E9E8-9AB6-4783-B44E-A39CAC338D17}">
-  <dimension ref="C3:O16"/>
+  <dimension ref="C3:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,79 +814,132 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
         <v>11</v>
       </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="9">
-        <v>9</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="9">
-        <v>11</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="20"/>
+      <c r="D15" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="9">
         <v>12</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="29">
+        <v>13</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="29">
+        <v>14</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="29">
+        <v>15</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE45C25-FF68-45DA-B034-153C582CB540}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279BDFF6-AE11-4114-B5AC-C07682D50C2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055E9E8-9AB6-4783-B44E-A39CAC338D17}">
   <dimension ref="C3:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279BDFF6-AE11-4114-B5AC-C07682D50C2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E100946-EE9F-49A0-9FB0-CCF29EFD83B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Report List</t>
   </si>
@@ -133,13 +133,22 @@
   </si>
   <si>
     <t>Stock Report (Product)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Image needs to be added, Purchase Invoice needs to be added. Few Invoices are not printing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +180,13 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,12 +276,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,9 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,6 +308,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,12 +638,12 @@
   <dimension ref="C3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="24"/>
+    <col min="3" max="3" width="9.140625" style="22"/>
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
@@ -780,19 +799,19 @@
       </c>
     </row>
     <row r="10" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>6</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="E10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -820,13 +839,13 @@
       <c r="D12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="27" t="s">
+      <c r="E12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -834,16 +853,16 @@
       <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="E13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -851,16 +870,16 @@
       <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="27" t="s">
+      <c r="E14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -868,78 +887,82 @@
       <c r="C15" s="7">
         <v>11</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="E15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>12</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="30">
+        <v>13</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="26">
+        <v>14</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="26">
+        <v>15</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" s="29">
-        <v>13</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="29">
-        <v>14</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="29">
-        <v>15</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E100946-EE9F-49A0-9FB0-CCF29EFD83B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CE8D10-E702-4DFD-BC38-A067F2D3D985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Report List</t>
   </si>
@@ -135,13 +135,13 @@
     <t>Stock Report (Product)</t>
   </si>
   <si>
-    <t xml:space="preserve">Partial </t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Image needs to be added, Purchase Invoice needs to be added. Few Invoices are not printing</t>
+    <t xml:space="preserve">Validation </t>
+  </si>
+  <si>
+    <t>Image needs to be added. Few Invoices are not printing due to bad dataset</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,13 +313,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,6 +757,16 @@
       <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="K7" s="30">
+        <v>3</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
@@ -918,19 +922,19 @@
       </c>
     </row>
     <row r="17" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" s="30">
+      <c r="C17" s="7">
         <v>13</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="8" t="s">
         <v>38</v>
       </c>
     </row>

--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CE8D10-E702-4DFD-BC38-A067F2D3D985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C657F6-4C64-475C-ABF5-D6DA7E059A32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Report List</t>
   </si>
@@ -51,15 +51,9 @@
     <t xml:space="preserve">Done </t>
   </si>
   <si>
-    <t>Company image needs to added</t>
-  </si>
-  <si>
     <t>Quotation</t>
   </si>
   <si>
-    <t>Manage Invoice</t>
-  </si>
-  <si>
     <t>Null</t>
   </si>
   <si>
@@ -141,14 +135,29 @@
     <t xml:space="preserve">Validation </t>
   </si>
   <si>
-    <t>Image needs to be added. Few Invoices are not printing due to bad dataset</t>
+    <t>Due Invoice (Sales--&gt;  Mange Invoice)</t>
+  </si>
+  <si>
+    <t>Few Invoices are not printing due to bad dataset</t>
+  </si>
+  <si>
+    <t>Adding Company Logo to the setting</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Order Mange</t>
+  </si>
+  <si>
+    <t>Delete Order, Create Bill againts Purchase Invoice, See the short List  of Product , Forcust the Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +200,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -224,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,16 +265,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -310,9 +317,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,25 +641,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055E9E8-9AB6-4783-B44E-A39CAC338D17}">
   <dimension ref="C3:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="22"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>16</v>
+      <c r="L3" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="M3" s="3"/>
     </row>
@@ -670,19 +681,19 @@
         <v>5</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="O4" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:15" ht="75" x14ac:dyDescent="0.25">
@@ -698,27 +709,25 @@
       <c r="F5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="3:15" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>7</v>
@@ -726,247 +735,252 @@
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="K6" s="9">
         <v>2</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>23</v>
+      <c r="L6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="3:15" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="3:15" ht="60" x14ac:dyDescent="0.25">
       <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>10</v>
+      <c r="D7" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="30">
+        <v>23</v>
+      </c>
+      <c r="K7" s="27">
         <v>3</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="30"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="3:15" ht="75" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="K8" s="28">
+        <v>4</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="3:15" ht="105" x14ac:dyDescent="0.25">
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>13</v>
+      <c r="D9" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="K9" s="29">
+        <v>5</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>6</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="D10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="7">
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="3:15" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="D12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="D13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>26</v>
+      <c r="D14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="7">
         <v>11</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="D15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="7">
         <v>12</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="D16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C17" s="7">
         <v>13</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="23">
+        <v>14</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="23">
+        <v>15</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="26">
-        <v>14</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="E19" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="26">
-        <v>15</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="29"/>
+      <c r="F19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CMSNPOS Progress Report .xlsx
+++ b/CMSNPOS Progress Report .xlsx
@@ -8,12 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rashed at CMNS Network\Office Project\POS08122018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C657F6-4C64-475C-ABF5-D6DA7E059A32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3522C-41ED-4650-A168-F1D0C3207F4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" tabRatio="736" firstSheet="5" activeTab="8" xr2:uid="{B79BC434-B9B0-4D1E-81C0-2AA777CF683A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BarCode" sheetId="11" r:id="rId2"/>
+    <sheet name="Sales" sheetId="15" r:id="rId3"/>
+    <sheet name="Employee" sheetId="12" r:id="rId4"/>
+    <sheet name="Order" sheetId="13" r:id="rId5"/>
+    <sheet name="Damage" sheetId="10" r:id="rId6"/>
+    <sheet name="Income" sheetId="16" r:id="rId7"/>
+    <sheet name="Expens" sheetId="17" r:id="rId8"/>
+    <sheet name="Banking" sheetId="18" r:id="rId9"/>
+    <sheet name="Product" sheetId="14" r:id="rId10"/>
+    <sheet name="Category" sheetId="8" r:id="rId11"/>
+    <sheet name="Department" sheetId="9" r:id="rId12"/>
+    <sheet name="Supplier" sheetId="7" r:id="rId13"/>
+    <sheet name="POS Settings" sheetId="2" r:id="rId14"/>
+    <sheet name="Customer" sheetId="6" r:id="rId15"/>
+    <sheet name="Accounts" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="120">
   <si>
     <t>Report List</t>
   </si>
@@ -96,9 +111,6 @@
     <t xml:space="preserve">Not Done </t>
   </si>
   <si>
-    <t>Company image needs to added, Company name and address should be dynamic</t>
-  </si>
-  <si>
     <t>Image needs to be added</t>
   </si>
   <si>
@@ -147,10 +159,247 @@
     <t>Partial</t>
   </si>
   <si>
-    <t xml:space="preserve"> Order Mange</t>
-  </si>
-  <si>
     <t>Delete Order, Create Bill againts Purchase Invoice, See the short List  of Product , Forcust the Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Order Manage</t>
+  </si>
+  <si>
+    <t>Features we will  Have in the POS</t>
+  </si>
+  <si>
+    <t>Accountings</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Manage Damage</t>
+  </si>
+  <si>
+    <t>Bar Code</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Mangae Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products </t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Damange Entry</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS Strrings </t>
+  </si>
+  <si>
+    <t>Features of Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings </t>
+  </si>
+  <si>
+    <t>Shop List</t>
+  </si>
+  <si>
+    <t>Profile Page</t>
+  </si>
+  <si>
+    <t>Add Task</t>
+  </si>
+  <si>
+    <t>Task List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>last Requirement</t>
+  </si>
+  <si>
+    <t>New Requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date </t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Task </t>
+  </si>
+  <si>
+    <t>Accounts Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. </t>
+  </si>
+  <si>
+    <t>Chart of Accounts</t>
+  </si>
+  <si>
+    <t>Chart Accounts</t>
+  </si>
+  <si>
+    <t>Add Customer</t>
+  </si>
+  <si>
+    <t>Manage Customer</t>
+  </si>
+  <si>
+    <t>Manae Customer</t>
+  </si>
+  <si>
+    <t>Add Supplier</t>
+  </si>
+  <si>
+    <t>Manage Supplier</t>
+  </si>
+  <si>
+    <t>Add Suppler</t>
+  </si>
+  <si>
+    <t>Add Category</t>
+  </si>
+  <si>
+    <t>Add Department</t>
+  </si>
+  <si>
+    <t>Manage Department</t>
+  </si>
+  <si>
+    <t>Add Departement</t>
+  </si>
+  <si>
+    <t>Manage Departement</t>
+  </si>
+  <si>
+    <t>Damage Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Entry </t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Employee </t>
+  </si>
+  <si>
+    <t>Manage Employee</t>
+  </si>
+  <si>
+    <t>Employee Profile</t>
+  </si>
+  <si>
+    <t>Employee Access Right</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Add New Order</t>
+  </si>
+  <si>
+    <t>Order History</t>
+  </si>
+  <si>
+    <t>Mange Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order History </t>
+  </si>
+  <si>
+    <t>Manage Order</t>
+  </si>
+  <si>
+    <t>Add New Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulk Update </t>
+  </si>
+  <si>
+    <t>Mange Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product List </t>
+  </si>
+  <si>
+    <t>Special Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quotation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Invoice </t>
+  </si>
+  <si>
+    <t>Manage Quotation</t>
+  </si>
+  <si>
+    <t>Sales Return</t>
+  </si>
+  <si>
+    <t>Item wise Sales Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit Loss </t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Income Entry</t>
+  </si>
+  <si>
+    <t>Income Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expense </t>
+  </si>
+  <si>
+    <t>Expense Category</t>
+  </si>
+  <si>
+    <t>Add New Bank Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deposit </t>
+  </si>
+  <si>
+    <t>Withdraw</t>
   </si>
 </sst>
 </file>
@@ -208,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +476,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,11 +491,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,15 +593,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,54 +603,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,32 +1039,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055E9E8-9AB6-4783-B44E-A39CAC338D17}">
-  <dimension ref="C3:O19"/>
+  <dimension ref="A3:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -683,304 +1084,2265 @@
       <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="C5" s="7">
+      <c r="O4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="K5" s="9">
+      <c r="G5" s="14"/>
+      <c r="K5" s="35">
         <v>1</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="3:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="C6" s="7">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="K6" s="9">
+      <c r="G6" s="17"/>
+      <c r="K6" s="38">
         <v>2</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
     </row>
     <row r="7" spans="3:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="C7" s="7">
+      <c r="C7" s="15">
         <v>3</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="K7" s="41">
+        <v>3</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="3:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="K8" s="44">
+        <v>4</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+    </row>
+    <row r="9" spans="3:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="15">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="K9" s="47">
+        <v>5</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+    </row>
+    <row r="10" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="20">
+        <v>6</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="15">
+        <v>7</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="3:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="15">
+        <v>8</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="15">
+        <v>9</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="15">
+        <v>10</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="15">
+        <v>12</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="15">
+        <v>13</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="7" t="s">
+    </row>
+    <row r="18" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="27">
+        <v>14</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="3:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="31">
+        <v>15</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="27">
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACD411C-CCA0-4758-979A-608509581FA3}">
+  <dimension ref="A2:AP9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="D9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z9" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH9" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP9" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A143DD64-245E-4397-B3EF-949E1304F6B2}">
+  <dimension ref="A2:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364DD3B4-B73E-474B-8627-0170593B511E}">
+  <dimension ref="A2:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3588E710-2DA8-41C3-9E71-A24C991FD2FF}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A253B06-0505-4210-A2E4-55C9A7696CF7}">
+  <dimension ref="B3:AQ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="L7" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="3:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="C8" s="7">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="E10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="U10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="X10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO10" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ10" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3DD615-72F5-4115-B019-DEA420A3D16A}">
+  <dimension ref="D6:U10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="G10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC64A474-5B57-4F92-834E-FE700ED813E6}">
+  <dimension ref="C4:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C915874F-A937-43DE-9F4C-50A8576D4921}">
+  <dimension ref="A2:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3C5098-DC1A-4B11-8789-76B068669FE7}">
+  <dimension ref="A1:BW13"/>
+  <sheetViews>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BR17" sqref="BR17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="K8" s="28">
-        <v>4</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="3:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="C9" s="7">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="K9" s="29">
-        <v>5</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-    </row>
-    <row r="10" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="16">
-        <v>6</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="7">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="s">
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="3:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="7">
-        <v>9</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="7">
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV12" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
-        <v>11</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="7">
-        <v>12</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" s="7">
+      <c r="BD12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT12" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="23">
-        <v>14</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="25" t="s">
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="E13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="W13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU13" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="BV13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW13" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FACEA78-C2F7-4C5E-A8E8-FE54BA896D1D}">
+  <dimension ref="A1:AI8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI8" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D76B751-A9F6-4569-A403-42B041C6D9CA}">
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC26BB-143F-4F5A-96E6-F4AC8129B53E}">
+  <dimension ref="A2:Z7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="23">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z7" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05A530E-B7C1-4DF7-8039-536EDE4E131B}">
+  <dimension ref="A2:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="26"/>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6069DA7D-00D7-4DDB-A83D-E41960900CDC}">
+  <dimension ref="A2:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC3C5D-7F8F-449E-A78B-8B94D69B9E81}">
+  <dimension ref="A2:Z6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="50" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
